--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vip-Adcyap1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vip-Adcyap1r1.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.24009</v>
+        <v>0.6855646666666667</v>
       </c>
       <c r="H2">
-        <v>0.72027</v>
+        <v>2.056694</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.9335679999999998</v>
+        <v>0.2514313333333333</v>
       </c>
       <c r="N2">
-        <v>2.800704</v>
+        <v>0.754294</v>
       </c>
       <c r="O2">
-        <v>0.07104672603597631</v>
+        <v>0.01999844741031966</v>
       </c>
       <c r="P2">
-        <v>0.07104672603597631</v>
+        <v>0.01999844741031965</v>
       </c>
       <c r="Q2">
-        <v>0.2241403411199999</v>
+        <v>0.1723724382262222</v>
       </c>
       <c r="R2">
-        <v>2.01726307008</v>
+        <v>1.551351944036</v>
       </c>
       <c r="S2">
-        <v>0.07104672603597631</v>
+        <v>0.01999844741031966</v>
       </c>
       <c r="T2">
-        <v>0.07104672603597631</v>
+        <v>0.01999844741031965</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.24009</v>
+        <v>0.6855646666666667</v>
       </c>
       <c r="H3">
-        <v>0.72027</v>
+        <v>2.056694</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>29.801354</v>
       </c>
       <c r="O3">
-        <v>0.7559844357487071</v>
+        <v>0.790117395505359</v>
       </c>
       <c r="P3">
-        <v>0.7559844357487071</v>
+        <v>0.7901173955053589</v>
       </c>
       <c r="Q3">
-        <v>2.38500236062</v>
+        <v>6.810251773741777</v>
       </c>
       <c r="R3">
-        <v>21.46502124558</v>
+        <v>61.292265963676</v>
       </c>
       <c r="S3">
-        <v>0.7559844357487071</v>
+        <v>0.790117395505359</v>
       </c>
       <c r="T3">
-        <v>0.7559844357487071</v>
+        <v>0.7901173955053589</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.24009</v>
+        <v>0.6855646666666667</v>
       </c>
       <c r="H4">
-        <v>0.72027</v>
+        <v>2.056694</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.272844666666667</v>
+        <v>2.387326666666667</v>
       </c>
       <c r="N4">
-        <v>6.818534000000001</v>
+        <v>7.16198</v>
       </c>
       <c r="O4">
-        <v>0.1729688382153165</v>
+        <v>0.1898841570843214</v>
       </c>
       <c r="P4">
-        <v>0.1729688382153165</v>
+        <v>0.1898841570843214</v>
       </c>
       <c r="Q4">
-        <v>0.54568727602</v>
+        <v>1.636666810457778</v>
       </c>
       <c r="R4">
-        <v>4.91118548418</v>
+        <v>14.73000129412</v>
       </c>
       <c r="S4">
-        <v>0.1729688382153165</v>
+        <v>0.1898841570843214</v>
       </c>
       <c r="T4">
-        <v>0.1729688382153165</v>
+        <v>0.1898841570843214</v>
       </c>
     </row>
   </sheetData>
